--- a/ace-utilities/src/main/java/com/ace/excel/ORDER-TDF-FW24-MFO.xlsx
+++ b/ace-utilities/src/main/java/com/ace/excel/ORDER-TDF-FW24-MFO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejames\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garlam.Au\IdeaProjects\ace-cloud\ace-utilities\src\main\java\com\ace\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3380006-364C-40A3-94F3-4D961B833237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0763AC9C-2BFB-4FAB-9E81-7FBE29A74937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E51845C-8143-4577-BCD5-FB19AB5BB3BB}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E51845C-8143-4577-BCD5-FB19AB5BB3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="PO Plan" sheetId="1" r:id="rId1"/>
@@ -903,9 +903,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +943,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +1049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1202,95 +1202,95 @@
   <dimension ref="A1:XET56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="30" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="15.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="17.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="8.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="18.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="13.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="13.44140625" style="5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="18.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="14" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="13.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" style="6" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="13.44140625" style="5" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="9.6640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="6.6640625" style="4" customWidth="1"/>
-    <col min="49" max="49" width="7.5546875" style="2" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" style="2" customWidth="1"/>
-    <col min="51" max="51" width="6.33203125" style="2" customWidth="1"/>
-    <col min="52" max="52" width="6.44140625" style="2" customWidth="1"/>
-    <col min="53" max="53" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="7.44140625" style="4" customWidth="1"/>
-    <col min="59" max="63" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="7.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="70" max="71" width="7.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="9.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="74" max="75" width="7.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="77" max="78" width="7.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="9.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="81" max="82" width="7.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="84" max="85" width="7.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="9.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="7.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="7.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="90" max="91" width="7.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="18.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="40.88671875" style="3" customWidth="1"/>
-    <col min="94" max="94" width="30.6640625" style="2" customWidth="1"/>
-    <col min="95" max="95" width="31.33203125" style="2" customWidth="1"/>
-    <col min="96" max="96" width="22.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" style="5" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="6.7109375" style="4" customWidth="1"/>
+    <col min="49" max="49" width="7.5703125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" style="2" customWidth="1"/>
+    <col min="51" max="51" width="6.28515625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="6.42578125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="7.42578125" style="4" customWidth="1"/>
+    <col min="59" max="63" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="70" max="71" width="7.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="74" max="75" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="77" max="78" width="7.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="81" max="82" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="84" max="85" width="7.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="7.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="90" max="91" width="7.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="40.85546875" style="3" customWidth="1"/>
+    <col min="94" max="94" width="30.7109375" style="2" customWidth="1"/>
+    <col min="95" max="95" width="31.28515625" style="2" customWidth="1"/>
+    <col min="96" max="96" width="22.42578125" style="1" customWidth="1"/>
     <col min="97" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>96</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>106</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>105</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1"/>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>107</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1"/>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>108</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>107</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1"/>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>109</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="CP8" s="1"/>
       <c r="CQ8" s="1"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>110</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="CP9" s="1"/>
       <c r="CQ9" s="1"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>111</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="CP10" s="1"/>
       <c r="CQ10" s="1"/>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>109</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="CP11" s="1"/>
       <c r="CQ11" s="1"/>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>112</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>112</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="CP13" s="1"/>
       <c r="CQ13" s="1"/>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>113</v>
       </c>
@@ -2765,7 +2765,7 @@
       <c r="CP14" s="1"/>
       <c r="CQ14" s="1"/>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>113</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="CQ15" s="1"/>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>114</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="CQ16" s="1"/>
     </row>
-    <row r="17" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>114</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="CQ17" s="1"/>
     </row>
-    <row r="18" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>115</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="CQ18" s="1"/>
     </row>
-    <row r="19" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>115</v>
       </c>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="CQ19" s="1"/>
     </row>
-    <row r="20" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>116</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="CQ20" s="1"/>
     </row>
-    <row r="21" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>116</v>
       </c>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="CQ21" s="1"/>
     </row>
-    <row r="22" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>117</v>
       </c>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="CQ22" s="1"/>
     </row>
-    <row r="23" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>117</v>
       </c>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="CQ23" s="1"/>
     </row>
-    <row r="24" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>118</v>
       </c>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="CQ24" s="1"/>
     </row>
-    <row r="25" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>118</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>119</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="XES26" s="3"/>
       <c r="XET26" s="3"/>
     </row>
-    <row r="27" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>119</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>120</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>120</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>121</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>121</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:95 16337:16374" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:95 16337:16374" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>122</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>122</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>123</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>123</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>124</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>125</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>124</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>160</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>165</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>168</v>
       </c>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>170</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>159</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="1" t="s">
         <v>141</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>142</v>
       </c>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>164</v>
       </c>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>172</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>161</v>
       </c>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>173</v>
       </c>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>150</v>
       </c>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>150</v>
@@ -4439,7 +4439,7 @@
       <c r="E54" s="2"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>175</v>
       </c>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>134</v>
       </c>
